--- a/invoices_functions/files/so_invoices.xlsx
+++ b/invoices_functions/files/so_invoices.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\wb_odoo_external_api\invoices_functions\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0374085F-5D30-446B-A8B9-9C296EC40279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6FE441-4F20-4CB8-8FF8-5D3B95EF888B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{5D941F05-6685-4D6A-8FCD-7985621E4B9D}"/>
   </bookViews>
@@ -25,414 +25,2586 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="860">
   <si>
     <t>so_name</t>
   </si>
   <si>
-    <t>SO2457273</t>
-  </si>
-  <si>
-    <t>SO2453861</t>
-  </si>
-  <si>
-    <t>SO2456608</t>
-  </si>
-  <si>
-    <t>SO2455087</t>
-  </si>
-  <si>
-    <t>SO2453043</t>
-  </si>
-  <si>
-    <t>SO2453538</t>
-  </si>
-  <si>
-    <t>SO2453291</t>
-  </si>
-  <si>
-    <t>SO2453930</t>
-  </si>
-  <si>
-    <t>SO2455862</t>
-  </si>
-  <si>
-    <t>SO2457281</t>
-  </si>
-  <si>
-    <t>SO2454322</t>
-  </si>
-  <si>
-    <t>SO2454507</t>
-  </si>
-  <si>
-    <t>SO2456787</t>
-  </si>
-  <si>
-    <t>SO2454890</t>
-  </si>
-  <si>
-    <t>SO2455075</t>
-  </si>
-  <si>
-    <t>SO2455100</t>
-  </si>
-  <si>
-    <t>SO2455311</t>
-  </si>
-  <si>
-    <t>SO2455254</t>
-  </si>
-  <si>
-    <t>SO2455403</t>
-  </si>
-  <si>
-    <t>SO2455263</t>
-  </si>
-  <si>
-    <t>SO2455789</t>
-  </si>
-  <si>
-    <t>SO2455480</t>
-  </si>
-  <si>
-    <t>SO2456279</t>
-  </si>
-  <si>
-    <t>SO2455607</t>
-  </si>
-  <si>
-    <t>SO2457244</t>
-  </si>
-  <si>
-    <t>SO2455712</t>
-  </si>
-  <si>
-    <t>SO2455794</t>
-  </si>
-  <si>
-    <t>SO2455813</t>
-  </si>
-  <si>
-    <t>SO2456015</t>
-  </si>
-  <si>
-    <t>SO2455760</t>
-  </si>
-  <si>
-    <t>SO2455920</t>
-  </si>
-  <si>
-    <t>SO2455979</t>
-  </si>
-  <si>
-    <t>SO2456061</t>
-  </si>
-  <si>
-    <t>SO2456081</t>
-  </si>
-  <si>
-    <t>SO2456124</t>
-  </si>
-  <si>
-    <t>SO2456149</t>
-  </si>
-  <si>
-    <t>SO2456185</t>
-  </si>
-  <si>
-    <t>SO2456197</t>
-  </si>
-  <si>
-    <t>SO2456246</t>
-  </si>
-  <si>
-    <t>SO2456280</t>
-  </si>
-  <si>
-    <t>SO2456385</t>
-  </si>
-  <si>
-    <t>SO2456509</t>
-  </si>
-  <si>
-    <t>SO2456563</t>
-  </si>
-  <si>
-    <t>SO2456864</t>
-  </si>
-  <si>
-    <t>SO2456847</t>
-  </si>
-  <si>
-    <t>SO2456953</t>
-  </si>
-  <si>
-    <t>SO2456962</t>
-  </si>
-  <si>
-    <t>SO2457040</t>
-  </si>
-  <si>
-    <t>SO2457061</t>
-  </si>
-  <si>
-    <t>SO2457118</t>
-  </si>
-  <si>
-    <t>SO2457117</t>
-  </si>
-  <si>
-    <t>SO2457175</t>
-  </si>
-  <si>
-    <t>SO2457254</t>
-  </si>
-  <si>
-    <t>SO2457228</t>
-  </si>
-  <si>
-    <t>SO2457255</t>
-  </si>
-  <si>
-    <t>SO2457321</t>
-  </si>
-  <si>
-    <t>SO2457302</t>
-  </si>
-  <si>
-    <t>SO2457296</t>
-  </si>
-  <si>
-    <t>SO2457404</t>
-  </si>
-  <si>
-    <t>SO2457837</t>
-  </si>
-  <si>
-    <t>SO2457461</t>
-  </si>
-  <si>
-    <t>SO2457462</t>
-  </si>
-  <si>
-    <t>SO2457517</t>
-  </si>
-  <si>
-    <t>SO2457540</t>
-  </si>
-  <si>
-    <t>SO2457716</t>
-  </si>
-  <si>
-    <t>SO2457717</t>
-  </si>
-  <si>
-    <t>SO2457714</t>
-  </si>
-  <si>
-    <t>SO2457815</t>
-  </si>
-  <si>
-    <t>SO2457836</t>
-  </si>
-  <si>
-    <t>SO2457941</t>
-  </si>
-  <si>
-    <t>SO2458013</t>
-  </si>
-  <si>
-    <t>SO2457320</t>
-  </si>
-  <si>
-    <t>SO2457375</t>
-  </si>
-  <si>
-    <t>SO2455021</t>
-  </si>
-  <si>
-    <t>SO2456296</t>
-  </si>
-  <si>
-    <t>SO2454338</t>
-  </si>
-  <si>
-    <t>SO2455293</t>
-  </si>
-  <si>
-    <t>SO2457541</t>
-  </si>
-  <si>
-    <t>SO2457797</t>
-  </si>
-  <si>
-    <t>SO2456113</t>
-  </si>
-  <si>
-    <t>SO2457516</t>
-  </si>
-  <si>
-    <t>SO2450277</t>
-  </si>
-  <si>
-    <t>SO2455575</t>
-  </si>
-  <si>
-    <t>SO2456228</t>
-  </si>
-  <si>
-    <t>SO2455776</t>
-  </si>
-  <si>
-    <t>SO2456384</t>
-  </si>
-  <si>
-    <t>SO2454231</t>
-  </si>
-  <si>
-    <t>SO2452981</t>
-  </si>
-  <si>
-    <t>SO2452907</t>
-  </si>
-  <si>
-    <t>SO2453781</t>
-  </si>
-  <si>
-    <t>SO2457882</t>
-  </si>
-  <si>
-    <t>SO2453328</t>
-  </si>
-  <si>
-    <t>SO2453421</t>
-  </si>
-  <si>
-    <t>SO2453440</t>
-  </si>
-  <si>
-    <t>SO2453982</t>
-  </si>
-  <si>
-    <t>SO2456476</t>
-  </si>
-  <si>
-    <t>SO2457464</t>
-  </si>
-  <si>
-    <t>SO2456048</t>
-  </si>
-  <si>
-    <t>SO2454848</t>
-  </si>
-  <si>
-    <t>SO2457119</t>
-  </si>
-  <si>
-    <t>SO2454955</t>
-  </si>
-  <si>
-    <t>SO2455076</t>
-  </si>
-  <si>
-    <t>SO2455339</t>
-  </si>
-  <si>
-    <t>SO2455759</t>
-  </si>
-  <si>
-    <t>SO2456519</t>
-  </si>
-  <si>
-    <t>SO2457211</t>
-  </si>
-  <si>
-    <t>SO2455820</t>
-  </si>
-  <si>
-    <t>SO2455869</t>
-  </si>
-  <si>
-    <t>SO2455931</t>
-  </si>
-  <si>
-    <t>SO2456846</t>
-  </si>
-  <si>
-    <t>SO2456039</t>
-  </si>
-  <si>
-    <t>SO2456342</t>
-  </si>
-  <si>
-    <t>SO2456307</t>
-  </si>
-  <si>
-    <t>SO2456332</t>
-  </si>
-  <si>
-    <t>SO2456214</t>
-  </si>
-  <si>
-    <t>SO2456386</t>
-  </si>
-  <si>
-    <t>SO2456331</t>
-  </si>
-  <si>
-    <t>SO2456585</t>
-  </si>
-  <si>
-    <t>SO2456655</t>
-  </si>
-  <si>
-    <t>SO2456687</t>
-  </si>
-  <si>
-    <t>SO2456677</t>
-  </si>
-  <si>
-    <t>SO2456807</t>
-  </si>
-  <si>
-    <t>SO2456769</t>
-  </si>
-  <si>
-    <t>SO2457049</t>
-  </si>
-  <si>
-    <t>SO2457110</t>
-  </si>
-  <si>
-    <t>SO2457212</t>
-  </si>
-  <si>
-    <t>SO2457280</t>
-  </si>
-  <si>
-    <t>SO2457393</t>
-  </si>
-  <si>
-    <t>SO2457465</t>
-  </si>
-  <si>
-    <t>SO2457732</t>
-  </si>
-  <si>
-    <t>SO2457639</t>
-  </si>
-  <si>
-    <t>SO2457785</t>
-  </si>
-  <si>
-    <t>SO2457916</t>
-  </si>
-  <si>
-    <t>SO2458053</t>
-  </si>
-  <si>
-    <t>SO2458142</t>
+    <t>SO2475749</t>
+  </si>
+  <si>
+    <t>SO2471347</t>
+  </si>
+  <si>
+    <t>SO2471316</t>
+  </si>
+  <si>
+    <t>SO2471303</t>
+  </si>
+  <si>
+    <t>SO2471349</t>
+  </si>
+  <si>
+    <t>SO2471336</t>
+  </si>
+  <si>
+    <t>SO2471411</t>
+  </si>
+  <si>
+    <t>SO2471405</t>
+  </si>
+  <si>
+    <t>SO2471500</t>
+  </si>
+  <si>
+    <t>SO2471498</t>
+  </si>
+  <si>
+    <t>SO2471610</t>
+  </si>
+  <si>
+    <t>SO2472295</t>
+  </si>
+  <si>
+    <t>SO2471728</t>
+  </si>
+  <si>
+    <t>SO2476642</t>
+  </si>
+  <si>
+    <t>SO2471879</t>
+  </si>
+  <si>
+    <t>SO2472000</t>
+  </si>
+  <si>
+    <t>SO2471994</t>
+  </si>
+  <si>
+    <t>SO2472013</t>
+  </si>
+  <si>
+    <t>SO2471991</t>
+  </si>
+  <si>
+    <t>SO2471980</t>
+  </si>
+  <si>
+    <t>SO2472029</t>
+  </si>
+  <si>
+    <t>SO2472123</t>
+  </si>
+  <si>
+    <t>SO2472068</t>
+  </si>
+  <si>
+    <t>SO2472183</t>
+  </si>
+  <si>
+    <t>SO2472181</t>
+  </si>
+  <si>
+    <t>SO2472250</t>
+  </si>
+  <si>
+    <t>SO2474811</t>
+  </si>
+  <si>
+    <t>SO2472289</t>
+  </si>
+  <si>
+    <t>SO2472288</t>
+  </si>
+  <si>
+    <t>SO2472270</t>
+  </si>
+  <si>
+    <t>SO2472383</t>
+  </si>
+  <si>
+    <t>SO2472370</t>
+  </si>
+  <si>
+    <t>SO2472343</t>
+  </si>
+  <si>
+    <t>SO2472353</t>
+  </si>
+  <si>
+    <t>SO2472440</t>
+  </si>
+  <si>
+    <t>SO2472424</t>
+  </si>
+  <si>
+    <t>SO2472458</t>
+  </si>
+  <si>
+    <t>SO2472554</t>
+  </si>
+  <si>
+    <t>SO2472546</t>
+  </si>
+  <si>
+    <t>SO2474724</t>
+  </si>
+  <si>
+    <t>SO2474862</t>
+  </si>
+  <si>
+    <t>SO2474918</t>
+  </si>
+  <si>
+    <t>SO2474840</t>
+  </si>
+  <si>
+    <t>SO2474752</t>
+  </si>
+  <si>
+    <t>SO2474829</t>
+  </si>
+  <si>
+    <t>SO2474464</t>
+  </si>
+  <si>
+    <t>SO2474388</t>
+  </si>
+  <si>
+    <t>SO2474400</t>
+  </si>
+  <si>
+    <t>SO2473860</t>
+  </si>
+  <si>
+    <t>SO2475090</t>
+  </si>
+  <si>
+    <t>SO2473718</t>
+  </si>
+  <si>
+    <t>SO2474047</t>
+  </si>
+  <si>
+    <t>SO2474031</t>
+  </si>
+  <si>
+    <t>SO2473294</t>
+  </si>
+  <si>
+    <t>SO2473844</t>
+  </si>
+  <si>
+    <t>SO2488905</t>
+  </si>
+  <si>
+    <t>SO2474063</t>
+  </si>
+  <si>
+    <t>SO2473786</t>
+  </si>
+  <si>
+    <t>SO2473751</t>
+  </si>
+  <si>
+    <t>SO2473815</t>
+  </si>
+  <si>
+    <t>SO2473462</t>
+  </si>
+  <si>
+    <t>SO2473474</t>
+  </si>
+  <si>
+    <t>SO2473686</t>
+  </si>
+  <si>
+    <t>SO2473760</t>
+  </si>
+  <si>
+    <t>SO2473749</t>
+  </si>
+  <si>
+    <t>SO2473443</t>
+  </si>
+  <si>
+    <t>SO2473328</t>
+  </si>
+  <si>
+    <t>SO2473413</t>
+  </si>
+  <si>
+    <t>SO2473522</t>
+  </si>
+  <si>
+    <t>SO2473340</t>
+  </si>
+  <si>
+    <t>SO2473217</t>
+  </si>
+  <si>
+    <t>SO2473223</t>
+  </si>
+  <si>
+    <t>SO2473225</t>
+  </si>
+  <si>
+    <t>SO2473222</t>
+  </si>
+  <si>
+    <t>SO2473214</t>
+  </si>
+  <si>
+    <t>SO2472977</t>
+  </si>
+  <si>
+    <t>SO2473106</t>
+  </si>
+  <si>
+    <t>SO2472944</t>
+  </si>
+  <si>
+    <t>SO2478044</t>
+  </si>
+  <si>
+    <t>SO2473044</t>
+  </si>
+  <si>
+    <t>SO2472790</t>
+  </si>
+  <si>
+    <t>SO2473058</t>
+  </si>
+  <si>
+    <t>SO2472922</t>
+  </si>
+  <si>
+    <t>SO2473056</t>
+  </si>
+  <si>
+    <t>SO2472830</t>
+  </si>
+  <si>
+    <t>SO2472799</t>
+  </si>
+  <si>
+    <t>SO2472786</t>
+  </si>
+  <si>
+    <t>SO2472820</t>
+  </si>
+  <si>
+    <t>SO2472791</t>
+  </si>
+  <si>
+    <t>SO2477436</t>
+  </si>
+  <si>
+    <t>SO2475959</t>
+  </si>
+  <si>
+    <t>SO2472602</t>
+  </si>
+  <si>
+    <t>SO2473021</t>
+  </si>
+  <si>
+    <t>SO2472601</t>
+  </si>
+  <si>
+    <t>SO2472613</t>
+  </si>
+  <si>
+    <t>SO2475486</t>
+  </si>
+  <si>
+    <t>SO2472567</t>
+  </si>
+  <si>
+    <t>SO2473662</t>
+  </si>
+  <si>
+    <t>SO2474132</t>
+  </si>
+  <si>
+    <t>SO2474205</t>
+  </si>
+  <si>
+    <t>SO2477229</t>
+  </si>
+  <si>
+    <t>SO2474634</t>
+  </si>
+  <si>
+    <t>SO2474698</t>
+  </si>
+  <si>
+    <t>SO2475002</t>
+  </si>
+  <si>
+    <t>SO2475049</t>
+  </si>
+  <si>
+    <t>SO2475980</t>
+  </si>
+  <si>
+    <t>SO2490226</t>
+  </si>
+  <si>
+    <t>SO2475182</t>
+  </si>
+  <si>
+    <t>SO2475509</t>
+  </si>
+  <si>
+    <t>SO2477281</t>
+  </si>
+  <si>
+    <t>SO2475520</t>
+  </si>
+  <si>
+    <t>SO2475531</t>
+  </si>
+  <si>
+    <t>SO2475981</t>
+  </si>
+  <si>
+    <t>SO2475644</t>
+  </si>
+  <si>
+    <t>SO2475748</t>
+  </si>
+  <si>
+    <t>SO2475671</t>
+  </si>
+  <si>
+    <t>SO2475657</t>
+  </si>
+  <si>
+    <t>SO2480308</t>
+  </si>
+  <si>
+    <t>SO2475714</t>
+  </si>
+  <si>
+    <t>SO2475857</t>
+  </si>
+  <si>
+    <t>SO2475830</t>
+  </si>
+  <si>
+    <t>SO2475831</t>
+  </si>
+  <si>
+    <t>SO2477097</t>
+  </si>
+  <si>
+    <t>SO2475958</t>
+  </si>
+  <si>
+    <t>SO2475998</t>
+  </si>
+  <si>
+    <t>SO2476819</t>
+  </si>
+  <si>
+    <t>SO2476068</t>
+  </si>
+  <si>
+    <t>SO2476111</t>
+  </si>
+  <si>
+    <t>SO2476134</t>
+  </si>
+  <si>
+    <t>SO2476168</t>
+  </si>
+  <si>
+    <t>SO2476190</t>
+  </si>
+  <si>
+    <t>SO2476787</t>
+  </si>
+  <si>
+    <t>SO2476292</t>
+  </si>
+  <si>
+    <t>SO2480499</t>
+  </si>
+  <si>
+    <t>SO2481231</t>
+  </si>
+  <si>
+    <t>SO2476316</t>
+  </si>
+  <si>
+    <t>SO2476352</t>
+  </si>
+  <si>
+    <t>SO2476446</t>
+  </si>
+  <si>
+    <t>SO2476471</t>
+  </si>
+  <si>
+    <t>SO2476457</t>
+  </si>
+  <si>
+    <t>SO2476521</t>
+  </si>
+  <si>
+    <t>SO2476695</t>
+  </si>
+  <si>
+    <t>SO2476762</t>
+  </si>
+  <si>
+    <t>SO2476938</t>
+  </si>
+  <si>
+    <t>SO2476903</t>
+  </si>
+  <si>
+    <t>SO2476935</t>
+  </si>
+  <si>
+    <t>SO2476971</t>
+  </si>
+  <si>
+    <t>SO2477023</t>
+  </si>
+  <si>
+    <t>SO2477040</t>
+  </si>
+  <si>
+    <t>SO2477882</t>
+  </si>
+  <si>
+    <t>SO2477072</t>
+  </si>
+  <si>
+    <t>SO2477130</t>
+  </si>
+  <si>
+    <t>SO2478133</t>
+  </si>
+  <si>
+    <t>SO2477486</t>
+  </si>
+  <si>
+    <t>SO2477230</t>
+  </si>
+  <si>
+    <t>SO2477178</t>
+  </si>
+  <si>
+    <t>SO2477257</t>
+  </si>
+  <si>
+    <t>SO2477185</t>
+  </si>
+  <si>
+    <t>SO2477188</t>
+  </si>
+  <si>
+    <t>SO2478209</t>
+  </si>
+  <si>
+    <t>SO2477403</t>
+  </si>
+  <si>
+    <t>SO2477341</t>
+  </si>
+  <si>
+    <t>SO2477306</t>
+  </si>
+  <si>
+    <t>SO2477463</t>
+  </si>
+  <si>
+    <t>SO2477401</t>
+  </si>
+  <si>
+    <t>SO2477512</t>
+  </si>
+  <si>
+    <t>SO2477529</t>
+  </si>
+  <si>
+    <t>SO2477510</t>
+  </si>
+  <si>
+    <t>SO2477628</t>
+  </si>
+  <si>
+    <t>SO2477601</t>
+  </si>
+  <si>
+    <t>SO2477562</t>
+  </si>
+  <si>
+    <t>SO2477697</t>
+  </si>
+  <si>
+    <t>SO2477745</t>
+  </si>
+  <si>
+    <t>SO2477788</t>
+  </si>
+  <si>
+    <t>SO2477914</t>
+  </si>
+  <si>
+    <t>SO2477935</t>
+  </si>
+  <si>
+    <t>SO2477933</t>
+  </si>
+  <si>
+    <t>SO2477959</t>
+  </si>
+  <si>
+    <t>SO2480294</t>
+  </si>
+  <si>
+    <t>SO2477957</t>
+  </si>
+  <si>
+    <t>SO2478041</t>
+  </si>
+  <si>
+    <t>SO2478113</t>
+  </si>
+  <si>
+    <t>SO2478155</t>
+  </si>
+  <si>
+    <t>SO2478322</t>
+  </si>
+  <si>
+    <t>SO2478457</t>
+  </si>
+  <si>
+    <t>SO2480250</t>
+  </si>
+  <si>
+    <t>SO2478304</t>
+  </si>
+  <si>
+    <t>SO2500384</t>
+  </si>
+  <si>
+    <t>SO2478366</t>
+  </si>
+  <si>
+    <t>SO2478871</t>
+  </si>
+  <si>
+    <t>SO2478401</t>
+  </si>
+  <si>
+    <t>SO2478378</t>
+  </si>
+  <si>
+    <t>SO2478551</t>
+  </si>
+  <si>
+    <t>SO2480140</t>
+  </si>
+  <si>
+    <t>SO2478568</t>
+  </si>
+  <si>
+    <t>SO2478652</t>
+  </si>
+  <si>
+    <t>SO2478675</t>
+  </si>
+  <si>
+    <t>SO2478709</t>
+  </si>
+  <si>
+    <t>SO2478758</t>
+  </si>
+  <si>
+    <t>SO2480791</t>
+  </si>
+  <si>
+    <t>SO2478901</t>
+  </si>
+  <si>
+    <t>SO2478925</t>
+  </si>
+  <si>
+    <t>SO2479061</t>
+  </si>
+  <si>
+    <t>SO2479019</t>
+  </si>
+  <si>
+    <t>SO2479015</t>
+  </si>
+  <si>
+    <t>SO2479240</t>
+  </si>
+  <si>
+    <t>SO2479125</t>
+  </si>
+  <si>
+    <t>SO2479939</t>
+  </si>
+  <si>
+    <t>SO2479134</t>
+  </si>
+  <si>
+    <t>SO2479241</t>
+  </si>
+  <si>
+    <t>SO2479279</t>
+  </si>
+  <si>
+    <t>SO2479423</t>
+  </si>
+  <si>
+    <t>SO2479424</t>
+  </si>
+  <si>
+    <t>SO2479588</t>
+  </si>
+  <si>
+    <t>SO2479534</t>
+  </si>
+  <si>
+    <t>SO2481494</t>
+  </si>
+  <si>
+    <t>SO2482105</t>
+  </si>
+  <si>
+    <t>SO2479541</t>
+  </si>
+  <si>
+    <t>SO2479668</t>
+  </si>
+  <si>
+    <t>SO2481493</t>
+  </si>
+  <si>
+    <t>SO2479640</t>
+  </si>
+  <si>
+    <t>SO2479641</t>
+  </si>
+  <si>
+    <t>SO2479747</t>
+  </si>
+  <si>
+    <t>SO2479821</t>
+  </si>
+  <si>
+    <t>SO2479810</t>
+  </si>
+  <si>
+    <t>SO2479758</t>
+  </si>
+  <si>
+    <t>SO2479787</t>
+  </si>
+  <si>
+    <t>SO2479789</t>
+  </si>
+  <si>
+    <t>SO2482020</t>
+  </si>
+  <si>
+    <t>SO2480111</t>
+  </si>
+  <si>
+    <t>SO2480201</t>
+  </si>
+  <si>
+    <t>SO2480215</t>
+  </si>
+  <si>
+    <t>SO2480204</t>
+  </si>
+  <si>
+    <t>SO2480284</t>
+  </si>
+  <si>
+    <t>SO2480329</t>
+  </si>
+  <si>
+    <t>SO2480472</t>
+  </si>
+  <si>
+    <t>SO2482295</t>
+  </si>
+  <si>
+    <t>SO2485001</t>
+  </si>
+  <si>
+    <t>SO2480662</t>
+  </si>
+  <si>
+    <t>SO2484991</t>
+  </si>
+  <si>
+    <t>SO2480643</t>
+  </si>
+  <si>
+    <t>SO2508019</t>
+  </si>
+  <si>
+    <t>SO2480717</t>
+  </si>
+  <si>
+    <t>SO2480880</t>
+  </si>
+  <si>
+    <t>SO2480929</t>
+  </si>
+  <si>
+    <t>SO2480903</t>
+  </si>
+  <si>
+    <t>SO2481014</t>
+  </si>
+  <si>
+    <t>SO2481113</t>
+  </si>
+  <si>
+    <t>SO2481046</t>
+  </si>
+  <si>
+    <t>SO2481136</t>
+  </si>
+  <si>
+    <t>SO2481054</t>
+  </si>
+  <si>
+    <t>SO2481073</t>
+  </si>
+  <si>
+    <t>SO2481280</t>
+  </si>
+  <si>
+    <t>SO2481281</t>
+  </si>
+  <si>
+    <t>SO2481204</t>
+  </si>
+  <si>
+    <t>SO2482923</t>
+  </si>
+  <si>
+    <t>SO2481396</t>
+  </si>
+  <si>
+    <t>SO2481492</t>
+  </si>
+  <si>
+    <t>SO2481906</t>
+  </si>
+  <si>
+    <t>SO2481907</t>
+  </si>
+  <si>
+    <t>SO2481966</t>
+  </si>
+  <si>
+    <t>SO2481701</t>
+  </si>
+  <si>
+    <t>SO2484001</t>
+  </si>
+  <si>
+    <t>SO2485056</t>
+  </si>
+  <si>
+    <t>SO2481806</t>
+  </si>
+  <si>
+    <t>SO2481921</t>
+  </si>
+  <si>
+    <t>SO2481920</t>
+  </si>
+  <si>
+    <t>SO2481903</t>
+  </si>
+  <si>
+    <t>SO2481982</t>
+  </si>
+  <si>
+    <t>SO2482122</t>
+  </si>
+  <si>
+    <t>SO2482121</t>
+  </si>
+  <si>
+    <t>SO2481983</t>
+  </si>
+  <si>
+    <t>SO2482040</t>
+  </si>
+  <si>
+    <t>SO2482206</t>
+  </si>
+  <si>
+    <t>SO2482207</t>
+  </si>
+  <si>
+    <t>SO2485456</t>
+  </si>
+  <si>
+    <t>SO2482260</t>
+  </si>
+  <si>
+    <t>SO2484911</t>
+  </si>
+  <si>
+    <t>SO2482297</t>
+  </si>
+  <si>
+    <t>SO2482369</t>
+  </si>
+  <si>
+    <t>SO2482393</t>
+  </si>
+  <si>
+    <t>SO2482433</t>
+  </si>
+  <si>
+    <t>SO2483314</t>
+  </si>
+  <si>
+    <t>SO2482589</t>
+  </si>
+  <si>
+    <t>SO2482585</t>
+  </si>
+  <si>
+    <t>SO2482608</t>
+  </si>
+  <si>
+    <t>SO2482687</t>
+  </si>
+  <si>
+    <t>SO2482691</t>
+  </si>
+  <si>
+    <t>SO2484473</t>
+  </si>
+  <si>
+    <t>SO2483640</t>
+  </si>
+  <si>
+    <t>SO2486569</t>
+  </si>
+  <si>
+    <t>SO2487150</t>
+  </si>
+  <si>
+    <t>SO2482812</t>
+  </si>
+  <si>
+    <t>SO2483008</t>
+  </si>
+  <si>
+    <t>SO2483083</t>
+  </si>
+  <si>
+    <t>SO2483686</t>
+  </si>
+  <si>
+    <t>SO2483108</t>
+  </si>
+  <si>
+    <t>SO2483241</t>
+  </si>
+  <si>
+    <t>SO2483311</t>
+  </si>
+  <si>
+    <t>SO2483240</t>
+  </si>
+  <si>
+    <t>SO2486402</t>
+  </si>
+  <si>
+    <t>SO2483360</t>
+  </si>
+  <si>
+    <t>SO2483326</t>
+  </si>
+  <si>
+    <t>SO2488506</t>
+  </si>
+  <si>
+    <t>SO2483492</t>
+  </si>
+  <si>
+    <t>SO2486926</t>
+  </si>
+  <si>
+    <t>SO2488394</t>
+  </si>
+  <si>
+    <t>SO2483656</t>
+  </si>
+  <si>
+    <t>SO2488389</t>
+  </si>
+  <si>
+    <t>SO2484002</t>
+  </si>
+  <si>
+    <t>SO2483658</t>
+  </si>
+  <si>
+    <t>SO2483622</t>
+  </si>
+  <si>
+    <t>SO2483678</t>
+  </si>
+  <si>
+    <t>SO2483817</t>
+  </si>
+  <si>
+    <t>SO2483696</t>
+  </si>
+  <si>
+    <t>SO2483914</t>
+  </si>
+  <si>
+    <t>SO2483828</t>
+  </si>
+  <si>
+    <t>SO2483864</t>
+  </si>
+  <si>
+    <t>SO2483922</t>
+  </si>
+  <si>
+    <t>SO2483903</t>
+  </si>
+  <si>
+    <t>SO2483953</t>
+  </si>
+  <si>
+    <t>SO2484029</t>
+  </si>
+  <si>
+    <t>SO2483969</t>
+  </si>
+  <si>
+    <t>SO2484000</t>
+  </si>
+  <si>
+    <t>SO2484114</t>
+  </si>
+  <si>
+    <t>SO2484063</t>
+  </si>
+  <si>
+    <t>SO2484355</t>
+  </si>
+  <si>
+    <t>SO2508214</t>
+  </si>
+  <si>
+    <t>SO2484251</t>
+  </si>
+  <si>
+    <t>SO2484377</t>
+  </si>
+  <si>
+    <t>SO2484522</t>
+  </si>
+  <si>
+    <t>SO2484694</t>
+  </si>
+  <si>
+    <t>SO2484778</t>
+  </si>
+  <si>
+    <t>SO2484823</t>
+  </si>
+  <si>
+    <t>SO2484892</t>
+  </si>
+  <si>
+    <t>SO2485693</t>
+  </si>
+  <si>
+    <t>SO2484920</t>
+  </si>
+  <si>
+    <t>SO2484931</t>
+  </si>
+  <si>
+    <t>SO2485035</t>
+  </si>
+  <si>
+    <t>SO2496021</t>
+  </si>
+  <si>
+    <t>SO2485081</t>
+  </si>
+  <si>
+    <t>SO2485273</t>
+  </si>
+  <si>
+    <t>SO2485583</t>
+  </si>
+  <si>
+    <t>SO2485530</t>
+  </si>
+  <si>
+    <t>SO2485367</t>
+  </si>
+  <si>
+    <t>SO2485471</t>
+  </si>
+  <si>
+    <t>SO2485403</t>
+  </si>
+  <si>
+    <t>SO2485440</t>
+  </si>
+  <si>
+    <t>SO2485416</t>
+  </si>
+  <si>
+    <t>SO2485380</t>
+  </si>
+  <si>
+    <t>SO2485584</t>
+  </si>
+  <si>
+    <t>SO2485582</t>
+  </si>
+  <si>
+    <t>SO2485737</t>
+  </si>
+  <si>
+    <t>SO2485736</t>
+  </si>
+  <si>
+    <t>SO2485785</t>
+  </si>
+  <si>
+    <t>SO2485748</t>
+  </si>
+  <si>
+    <t>SO2487698</t>
+  </si>
+  <si>
+    <t>SO2502683</t>
+  </si>
+  <si>
+    <t>SO2485909</t>
+  </si>
+  <si>
+    <t>SO2486024</t>
+  </si>
+  <si>
+    <t>SO2486088</t>
+  </si>
+  <si>
+    <t>SO2486123</t>
+  </si>
+  <si>
+    <t>SO2486194</t>
+  </si>
+  <si>
+    <t>SO2486328</t>
+  </si>
+  <si>
+    <t>SO2486352</t>
+  </si>
+  <si>
+    <t>SO2486401</t>
+  </si>
+  <si>
+    <t>SO2486438</t>
+  </si>
+  <si>
+    <t>SO2486452</t>
+  </si>
+  <si>
+    <t>SO2486474</t>
+  </si>
+  <si>
+    <t>SO2486475</t>
+  </si>
+  <si>
+    <t>SO2486519</t>
+  </si>
+  <si>
+    <t>SO2486570</t>
+  </si>
+  <si>
+    <t>SO2486539</t>
+  </si>
+  <si>
+    <t>SO2486691</t>
+  </si>
+  <si>
+    <t>SO2487036</t>
+  </si>
+  <si>
+    <t>SO2486721</t>
+  </si>
+  <si>
+    <t>SO2486841</t>
+  </si>
+  <si>
+    <t>SO2486802</t>
+  </si>
+  <si>
+    <t>SO2487266</t>
+  </si>
+  <si>
+    <t>SO2486894</t>
+  </si>
+  <si>
+    <t>SO2486875</t>
+  </si>
+  <si>
+    <t>SO2486906</t>
+  </si>
+  <si>
+    <t>SO2486964</t>
+  </si>
+  <si>
+    <t>SO2486966</t>
+  </si>
+  <si>
+    <t>SO2486958</t>
+  </si>
+  <si>
+    <t>SO2489592</t>
+  </si>
+  <si>
+    <t>SO2487081</t>
+  </si>
+  <si>
+    <t>SO2487012</t>
+  </si>
+  <si>
+    <t>SO2487043</t>
+  </si>
+  <si>
+    <t>SO2492301</t>
+  </si>
+  <si>
+    <t>SO2487119</t>
+  </si>
+  <si>
+    <t>SO2487216</t>
+  </si>
+  <si>
+    <t>SO2487110</t>
+  </si>
+  <si>
+    <t>SO2487186</t>
+  </si>
+  <si>
+    <t>SO2487149</t>
+  </si>
+  <si>
+    <t>SO2489870</t>
+  </si>
+  <si>
+    <t>SO2487280</t>
+  </si>
+  <si>
+    <t>SO2487367</t>
+  </si>
+  <si>
+    <t>SO2487325</t>
+  </si>
+  <si>
+    <t>SO2487369</t>
+  </si>
+  <si>
+    <t>SO2487426</t>
+  </si>
+  <si>
+    <t>SO2487433</t>
+  </si>
+  <si>
+    <t>SO2487423</t>
+  </si>
+  <si>
+    <t>SO2487424</t>
+  </si>
+  <si>
+    <t>SO2487604</t>
+  </si>
+  <si>
+    <t>SO2487623</t>
+  </si>
+  <si>
+    <t>SO2487644</t>
+  </si>
+  <si>
+    <t>SO2487727</t>
+  </si>
+  <si>
+    <t>SO2487736</t>
+  </si>
+  <si>
+    <t>SO2487780</t>
+  </si>
+  <si>
+    <t>SO2487822</t>
+  </si>
+  <si>
+    <t>SO2490940</t>
+  </si>
+  <si>
+    <t>SO2487868</t>
+  </si>
+  <si>
+    <t>SO2494375</t>
+  </si>
+  <si>
+    <t>SO2501825</t>
+  </si>
+  <si>
+    <t>SO2487989</t>
+  </si>
+  <si>
+    <t>SO2488083</t>
+  </si>
+  <si>
+    <t>SO2488235</t>
+  </si>
+  <si>
+    <t>SO2488173</t>
+  </si>
+  <si>
+    <t>SO2488698</t>
+  </si>
+  <si>
+    <t>SO2488297</t>
+  </si>
+  <si>
+    <t>SO2488240</t>
+  </si>
+  <si>
+    <t>SO2488296</t>
+  </si>
+  <si>
+    <t>SO2488335</t>
+  </si>
+  <si>
+    <t>SO2488470</t>
+  </si>
+  <si>
+    <t>SO2490129</t>
+  </si>
+  <si>
+    <t>SO2488550</t>
+  </si>
+  <si>
+    <t>SO2488549</t>
+  </si>
+  <si>
+    <t>SO2488680</t>
+  </si>
+  <si>
+    <t>SO2488581</t>
+  </si>
+  <si>
+    <t>SO2488697</t>
+  </si>
+  <si>
+    <t>SO2488635</t>
+  </si>
+  <si>
+    <t>SO2488677</t>
+  </si>
+  <si>
+    <t>SO2488755</t>
+  </si>
+  <si>
+    <t>SO2488906</t>
+  </si>
+  <si>
+    <t>SO2488902</t>
+  </si>
+  <si>
+    <t>SO2489871</t>
+  </si>
+  <si>
+    <t>SO2501638</t>
+  </si>
+  <si>
+    <t>SO2495086</t>
+  </si>
+  <si>
+    <t>SO2489032</t>
+  </si>
+  <si>
+    <t>SO2489073</t>
+  </si>
+  <si>
+    <t>SO2489095</t>
+  </si>
+  <si>
+    <t>SO2489094</t>
+  </si>
+  <si>
+    <t>SO2489266</t>
+  </si>
+  <si>
+    <t>SO2489221</t>
+  </si>
+  <si>
+    <t>SO2489256</t>
+  </si>
+  <si>
+    <t>SO2489354</t>
+  </si>
+  <si>
+    <t>SO2489454</t>
+  </si>
+  <si>
+    <t>SO2489398</t>
+  </si>
+  <si>
+    <t>SO2489439</t>
+  </si>
+  <si>
+    <t>SO2489570</t>
+  </si>
+  <si>
+    <t>SO2489713</t>
+  </si>
+  <si>
+    <t>SO2489827</t>
+  </si>
+  <si>
+    <t>SO2490202</t>
+  </si>
+  <si>
+    <t>SO2489844</t>
+  </si>
+  <si>
+    <t>SO2489918</t>
+  </si>
+  <si>
+    <t>SO2489996</t>
+  </si>
+  <si>
+    <t>SO2490131</t>
+  </si>
+  <si>
+    <t>SO2490147</t>
+  </si>
+  <si>
+    <t>SO2490151</t>
+  </si>
+  <si>
+    <t>SO2490157</t>
+  </si>
+  <si>
+    <t>SO2497435</t>
+  </si>
+  <si>
+    <t>SO2490320</t>
+  </si>
+  <si>
+    <t>SO2490407</t>
+  </si>
+  <si>
+    <t>SO2492391</t>
+  </si>
+  <si>
+    <t>SO2490654</t>
+  </si>
+  <si>
+    <t>SO2495704</t>
+  </si>
+  <si>
+    <t>SO2490683</t>
+  </si>
+  <si>
+    <t>SO2490849</t>
+  </si>
+  <si>
+    <t>SO2491023</t>
+  </si>
+  <si>
+    <t>SO2491193</t>
+  </si>
+  <si>
+    <t>SO2491229</t>
+  </si>
+  <si>
+    <t>SO2491177</t>
+  </si>
+  <si>
+    <t>SO2491630</t>
+  </si>
+  <si>
+    <t>SO2491403</t>
+  </si>
+  <si>
+    <t>SO2491430</t>
+  </si>
+  <si>
+    <t>SO2491450</t>
+  </si>
+  <si>
+    <t>SO2491449</t>
+  </si>
+  <si>
+    <t>SO2491742</t>
+  </si>
+  <si>
+    <t>SO2491741</t>
+  </si>
+  <si>
+    <t>SO2491829</t>
+  </si>
+  <si>
+    <t>SO2491935</t>
+  </si>
+  <si>
+    <t>SO2491955</t>
+  </si>
+  <si>
+    <t>SO2492004</t>
+  </si>
+  <si>
+    <t>SO2502103</t>
+  </si>
+  <si>
+    <t>SO2491954</t>
+  </si>
+  <si>
+    <t>SO2492154</t>
+  </si>
+  <si>
+    <t>SO2493181</t>
+  </si>
+  <si>
+    <t>SO2492582</t>
+  </si>
+  <si>
+    <t>SO2493745</t>
+  </si>
+  <si>
+    <t>SO2492334</t>
+  </si>
+  <si>
+    <t>SO2492563</t>
+  </si>
+  <si>
+    <t>SO2492776</t>
+  </si>
+  <si>
+    <t>SO2493308</t>
+  </si>
+  <si>
+    <t>SO2492581</t>
+  </si>
+  <si>
+    <t>SO2492624</t>
+  </si>
+  <si>
+    <t>SO2492713</t>
+  </si>
+  <si>
+    <t>SO2504630</t>
+  </si>
+  <si>
+    <t>SO2492690</t>
+  </si>
+  <si>
+    <t>SO2492691</t>
+  </si>
+  <si>
+    <t>SO2492835</t>
+  </si>
+  <si>
+    <t>SO2492926</t>
+  </si>
+  <si>
+    <t>SO2492886</t>
+  </si>
+  <si>
+    <t>SO2492990</t>
+  </si>
+  <si>
+    <t>SO2493027</t>
+  </si>
+  <si>
+    <t>SO2493180</t>
+  </si>
+  <si>
+    <t>SO2493233</t>
+  </si>
+  <si>
+    <t>SO2493336</t>
+  </si>
+  <si>
+    <t>SO2500829</t>
+  </si>
+  <si>
+    <t>SO2495087</t>
+  </si>
+  <si>
+    <t>SO2495082</t>
+  </si>
+  <si>
+    <t>SO2493593</t>
+  </si>
+  <si>
+    <t>SO2493802</t>
+  </si>
+  <si>
+    <t>SO2494569</t>
+  </si>
+  <si>
+    <t>SO2494008</t>
+  </si>
+  <si>
+    <t>SO2494020</t>
+  </si>
+  <si>
+    <t>SO2493954</t>
+  </si>
+  <si>
+    <t>SO2494030</t>
+  </si>
+  <si>
+    <t>SO2494891</t>
+  </si>
+  <si>
+    <t>SO2494593</t>
+  </si>
+  <si>
+    <t>SO2494813</t>
+  </si>
+  <si>
+    <t>SO2494468</t>
+  </si>
+  <si>
+    <t>SO2495677</t>
+  </si>
+  <si>
+    <t>SO2494579</t>
+  </si>
+  <si>
+    <t>SO2494835</t>
+  </si>
+  <si>
+    <t>SO2494793</t>
+  </si>
+  <si>
+    <t>SO2494847</t>
+  </si>
+  <si>
+    <t>SO2494892</t>
+  </si>
+  <si>
+    <t>SO2496121</t>
+  </si>
+  <si>
+    <t>SO2495741</t>
+  </si>
+  <si>
+    <t>SO2494995</t>
+  </si>
+  <si>
+    <t>SO2494987</t>
+  </si>
+  <si>
+    <t>SO2498148</t>
+  </si>
+  <si>
+    <t>SO2495436</t>
+  </si>
+  <si>
+    <t>SO2495424</t>
+  </si>
+  <si>
+    <t>SO2495493</t>
+  </si>
+  <si>
+    <t>SO2495462</t>
+  </si>
+  <si>
+    <t>SO2495507</t>
+  </si>
+  <si>
+    <t>SO2495670</t>
+  </si>
+  <si>
+    <t>SO2495676</t>
+  </si>
+  <si>
+    <t>SO2495770</t>
+  </si>
+  <si>
+    <t>SO2495796</t>
+  </si>
+  <si>
+    <t>SO2495798</t>
+  </si>
+  <si>
+    <t>SO2495854</t>
+  </si>
+  <si>
+    <t>SO2495902</t>
+  </si>
+  <si>
+    <t>SO2495915</t>
+  </si>
+  <si>
+    <t>SO2496028</t>
+  </si>
+  <si>
+    <t>SO2496062</t>
+  </si>
+  <si>
+    <t>SO2496215</t>
+  </si>
+  <si>
+    <t>SO2496162</t>
+  </si>
+  <si>
+    <t>SO2496249</t>
+  </si>
+  <si>
+    <t>SO2496258</t>
+  </si>
+  <si>
+    <t>SO2496606</t>
+  </si>
+  <si>
+    <t>SO2496471</t>
+  </si>
+  <si>
+    <t>SO2496596</t>
+  </si>
+  <si>
+    <t>SO2496571</t>
+  </si>
+  <si>
+    <t>SO2496632</t>
+  </si>
+  <si>
+    <t>SO2496683</t>
+  </si>
+  <si>
+    <t>SO2496716</t>
+  </si>
+  <si>
+    <t>SO2496805</t>
+  </si>
+  <si>
+    <t>SO2499865</t>
+  </si>
+  <si>
+    <t>SO2496934</t>
+  </si>
+  <si>
+    <t>SO2497030</t>
+  </si>
+  <si>
+    <t>SO2497170</t>
+  </si>
+  <si>
+    <t>SO2497097</t>
+  </si>
+  <si>
+    <t>SO2497089</t>
+  </si>
+  <si>
+    <t>SO2497821</t>
+  </si>
+  <si>
+    <t>SO2497169</t>
+  </si>
+  <si>
+    <t>SO2499338</t>
+  </si>
+  <si>
+    <t>SO2497303</t>
+  </si>
+  <si>
+    <t>SO2497355</t>
+  </si>
+  <si>
+    <t>SO2497409</t>
+  </si>
+  <si>
+    <t>SO2497516</t>
+  </si>
+  <si>
+    <t>SO2497523</t>
+  </si>
+  <si>
+    <t>SO2497646</t>
+  </si>
+  <si>
+    <t>SO2498972</t>
+  </si>
+  <si>
+    <t>SO2497658</t>
+  </si>
+  <si>
+    <t>SO2497770</t>
+  </si>
+  <si>
+    <t>SO2497887</t>
+  </si>
+  <si>
+    <t>SO2497961</t>
+  </si>
+  <si>
+    <t>SO2498091</t>
+  </si>
+  <si>
+    <t>SO2498119</t>
+  </si>
+  <si>
+    <t>SO2498199</t>
+  </si>
+  <si>
+    <t>SO2498105</t>
+  </si>
+  <si>
+    <t>SO2498120</t>
+  </si>
+  <si>
+    <t>SO2498212</t>
+  </si>
+  <si>
+    <t>SO2498265</t>
+  </si>
+  <si>
+    <t>SO2498306</t>
+  </si>
+  <si>
+    <t>SO2498355</t>
+  </si>
+  <si>
+    <t>SO2498334</t>
+  </si>
+  <si>
+    <t>SO2498405</t>
+  </si>
+  <si>
+    <t>SO2498362</t>
+  </si>
+  <si>
+    <t>SO2498474</t>
+  </si>
+  <si>
+    <t>SO2498812</t>
+  </si>
+  <si>
+    <t>SO2498528</t>
+  </si>
+  <si>
+    <t>SO2498526</t>
+  </si>
+  <si>
+    <t>SO2498562</t>
+  </si>
+  <si>
+    <t>SO2498615</t>
+  </si>
+  <si>
+    <t>SO2498607</t>
+  </si>
+  <si>
+    <t>SO2498641</t>
+  </si>
+  <si>
+    <t>SO2498606</t>
+  </si>
+  <si>
+    <t>SO2498642</t>
+  </si>
+  <si>
+    <t>SO2498756</t>
+  </si>
+  <si>
+    <t>SO2498784</t>
+  </si>
+  <si>
+    <t>SO2498961</t>
+  </si>
+  <si>
+    <t>SO2498942</t>
+  </si>
+  <si>
+    <t>SO2499019</t>
+  </si>
+  <si>
+    <t>SO2499147</t>
+  </si>
+  <si>
+    <t>SO2499148</t>
+  </si>
+  <si>
+    <t>SO2499228</t>
+  </si>
+  <si>
+    <t>SO2499273</t>
+  </si>
+  <si>
+    <t>SO2499309</t>
+  </si>
+  <si>
+    <t>SO2499229</t>
+  </si>
+  <si>
+    <t>SO2499272</t>
+  </si>
+  <si>
+    <t>SO2499340</t>
+  </si>
+  <si>
+    <t>SO2499417</t>
+  </si>
+  <si>
+    <t>SO2499415</t>
+  </si>
+  <si>
+    <t>SO2499414</t>
+  </si>
+  <si>
+    <t>SO2499443</t>
+  </si>
+  <si>
+    <t>SO2499466</t>
+  </si>
+  <si>
+    <t>SO2499478</t>
+  </si>
+  <si>
+    <t>SO2499523</t>
+  </si>
+  <si>
+    <t>SO2499538</t>
+  </si>
+  <si>
+    <t>SO2499537</t>
+  </si>
+  <si>
+    <t>SO2501793</t>
+  </si>
+  <si>
+    <t>SO2499681</t>
+  </si>
+  <si>
+    <t>SO2499654</t>
+  </si>
+  <si>
+    <t>SO2499715</t>
+  </si>
+  <si>
+    <t>SO2499714</t>
+  </si>
+  <si>
+    <t>SO2499799</t>
+  </si>
+  <si>
+    <t>SO2499839</t>
+  </si>
+  <si>
+    <t>SO2499972</t>
+  </si>
+  <si>
+    <t>SO2500059</t>
+  </si>
+  <si>
+    <t>SO2504257</t>
+  </si>
+  <si>
+    <t>SO2500067</t>
+  </si>
+  <si>
+    <t>SO2500060</t>
+  </si>
+  <si>
+    <t>SO2502042</t>
+  </si>
+  <si>
+    <t>SO2500307</t>
+  </si>
+  <si>
+    <t>SO2500277</t>
+  </si>
+  <si>
+    <t>SO2500410</t>
+  </si>
+  <si>
+    <t>SO2500392</t>
+  </si>
+  <si>
+    <t>SO2500452</t>
+  </si>
+  <si>
+    <t>SO2504096</t>
+  </si>
+  <si>
+    <t>SO2500488</t>
+  </si>
+  <si>
+    <t>SO2504733</t>
+  </si>
+  <si>
+    <t>SO2500563</t>
+  </si>
+  <si>
+    <t>SO2501304</t>
+  </si>
+  <si>
+    <t>SO2501408</t>
+  </si>
+  <si>
+    <t>SO2500644</t>
+  </si>
+  <si>
+    <t>SO2500714</t>
+  </si>
+  <si>
+    <t>SO2500977</t>
+  </si>
+  <si>
+    <t>SO2501182</t>
+  </si>
+  <si>
+    <t>SO2500857</t>
+  </si>
+  <si>
+    <t>SO2501593</t>
+  </si>
+  <si>
+    <t>SO2501024</t>
+  </si>
+  <si>
+    <t>SO2501112</t>
+  </si>
+  <si>
+    <t>SO2501514</t>
+  </si>
+  <si>
+    <t>SO2501276</t>
+  </si>
+  <si>
+    <t>SO2501275</t>
+  </si>
+  <si>
+    <t>SO2501363</t>
+  </si>
+  <si>
+    <t>SO2501328</t>
+  </si>
+  <si>
+    <t>SO2501361</t>
+  </si>
+  <si>
+    <t>SO2501565</t>
+  </si>
+  <si>
+    <t>SO2501443</t>
+  </si>
+  <si>
+    <t>SO2501359</t>
+  </si>
+  <si>
+    <t>SO2501404</t>
+  </si>
+  <si>
+    <t>SO2501567</t>
+  </si>
+  <si>
+    <t>SO2501665</t>
+  </si>
+  <si>
+    <t>SO2501640</t>
+  </si>
+  <si>
+    <t>SO2501783</t>
+  </si>
+  <si>
+    <t>SO2501780</t>
+  </si>
+  <si>
+    <t>SO2501792</t>
+  </si>
+  <si>
+    <t>SO2502178</t>
+  </si>
+  <si>
+    <t>SO2503193</t>
+  </si>
+  <si>
+    <t>SO2502186</t>
+  </si>
+  <si>
+    <t>SO2502280</t>
+  </si>
+  <si>
+    <t>SO2502259</t>
+  </si>
+  <si>
+    <t>SO2502386</t>
+  </si>
+  <si>
+    <t>SO2502329</t>
+  </si>
+  <si>
+    <t>SO2502437</t>
+  </si>
+  <si>
+    <t>SO2502379</t>
+  </si>
+  <si>
+    <t>SO2502449</t>
+  </si>
+  <si>
+    <t>SO2502496</t>
+  </si>
+  <si>
+    <t>SO2502535</t>
+  </si>
+  <si>
+    <t>SO2502610</t>
+  </si>
+  <si>
+    <t>SO2502659</t>
+  </si>
+  <si>
+    <t>SO2502705</t>
+  </si>
+  <si>
+    <t>SO2502783</t>
+  </si>
+  <si>
+    <t>SO2502782</t>
+  </si>
+  <si>
+    <t>SO2502786</t>
+  </si>
+  <si>
+    <t>SO2502871</t>
+  </si>
+  <si>
+    <t>SO2503139</t>
+  </si>
+  <si>
+    <t>SO2503228</t>
+  </si>
+  <si>
+    <t>SO2503191</t>
+  </si>
+  <si>
+    <t>SO2503204</t>
+  </si>
+  <si>
+    <t>SO2503684</t>
+  </si>
+  <si>
+    <t>SO2503492</t>
+  </si>
+  <si>
+    <t>SO2503530</t>
+  </si>
+  <si>
+    <t>SO2503493</t>
+  </si>
+  <si>
+    <t>SO2503636</t>
+  </si>
+  <si>
+    <t>SO2504141</t>
+  </si>
+  <si>
+    <t>SO2503571</t>
+  </si>
+  <si>
+    <t>SO2503692</t>
+  </si>
+  <si>
+    <t>SO2503587</t>
+  </si>
+  <si>
+    <t>SO2503717</t>
+  </si>
+  <si>
+    <t>SO2503607</t>
+  </si>
+  <si>
+    <t>SO2504809</t>
+  </si>
+  <si>
+    <t>SO2503691</t>
+  </si>
+  <si>
+    <t>SO2503767</t>
+  </si>
+  <si>
+    <t>SO2503787</t>
+  </si>
+  <si>
+    <t>SO2503786</t>
+  </si>
+  <si>
+    <t>SO2503858</t>
+  </si>
+  <si>
+    <t>SO2504009</t>
+  </si>
+  <si>
+    <t>SO2503932</t>
+  </si>
+  <si>
+    <t>SO2504089</t>
+  </si>
+  <si>
+    <t>SO2504055</t>
+  </si>
+  <si>
+    <t>SO2504088</t>
+  </si>
+  <si>
+    <t>SO2504119</t>
+  </si>
+  <si>
+    <t>SO2504140</t>
+  </si>
+  <si>
+    <t>SO2506400</t>
+  </si>
+  <si>
+    <t>SO2504264</t>
+  </si>
+  <si>
+    <t>SO2507853</t>
+  </si>
+  <si>
+    <t>SO2504287</t>
+  </si>
+  <si>
+    <t>SO2508087</t>
+  </si>
+  <si>
+    <t>SO2504371</t>
+  </si>
+  <si>
+    <t>SO2504522</t>
+  </si>
+  <si>
+    <t>SO2504521</t>
+  </si>
+  <si>
+    <t>SO2507879</t>
+  </si>
+  <si>
+    <t>SO2504771</t>
+  </si>
+  <si>
+    <t>SO2504755</t>
+  </si>
+  <si>
+    <t>SO2504801</t>
+  </si>
+  <si>
+    <t>SO2504778</t>
+  </si>
+  <si>
+    <t>SO2504805</t>
+  </si>
+  <si>
+    <t>SO2505060</t>
+  </si>
+  <si>
+    <t>SO2504984</t>
+  </si>
+  <si>
+    <t>SO2505084</t>
+  </si>
+  <si>
+    <t>SO2505194</t>
+  </si>
+  <si>
+    <t>SO2505319</t>
+  </si>
+  <si>
+    <t>SO2505275</t>
+  </si>
+  <si>
+    <t>SO2505391</t>
+  </si>
+  <si>
+    <t>SO2507836</t>
+  </si>
+  <si>
+    <t>SO2505344</t>
+  </si>
+  <si>
+    <t>SO2505567</t>
+  </si>
+  <si>
+    <t>SO2505635</t>
+  </si>
+  <si>
+    <t>SO2505768</t>
+  </si>
+  <si>
+    <t>SO2505745</t>
+  </si>
+  <si>
+    <t>SO2505802</t>
+  </si>
+  <si>
+    <t>SO2506011</t>
+  </si>
+  <si>
+    <t>SO2506049</t>
+  </si>
+  <si>
+    <t>SO2506398</t>
+  </si>
+  <si>
+    <t>SO2506231</t>
+  </si>
+  <si>
+    <t>SO2506242</t>
+  </si>
+  <si>
+    <t>SO2506292</t>
+  </si>
+  <si>
+    <t>SO2506275</t>
+  </si>
+  <si>
+    <t>SO2506399</t>
+  </si>
+  <si>
+    <t>SO2506308</t>
+  </si>
+  <si>
+    <t>SO2506374</t>
+  </si>
+  <si>
+    <t>SO2506375</t>
+  </si>
+  <si>
+    <t>SO2506550</t>
+  </si>
+  <si>
+    <t>SO2506554</t>
+  </si>
+  <si>
+    <t>SO2506551</t>
+  </si>
+  <si>
+    <t>SO2506568</t>
+  </si>
+  <si>
+    <t>SO2507263</t>
+  </si>
+  <si>
+    <t>SO2506859</t>
+  </si>
+  <si>
+    <t>SO2506908</t>
+  </si>
+  <si>
+    <t>SO2506879</t>
+  </si>
+  <si>
+    <t>SO2506907</t>
+  </si>
+  <si>
+    <t>SO2507002</t>
+  </si>
+  <si>
+    <t>SO2509243</t>
+  </si>
+  <si>
+    <t>SO2507046</t>
+  </si>
+  <si>
+    <t>SO2506981</t>
+  </si>
+  <si>
+    <t>SO2507021</t>
+  </si>
+  <si>
+    <t>SO2507114</t>
+  </si>
+  <si>
+    <t>SO2507092</t>
+  </si>
+  <si>
+    <t>SO2507632</t>
+  </si>
+  <si>
+    <t>SO2507217</t>
+  </si>
+  <si>
+    <t>SO2509091</t>
+  </si>
+  <si>
+    <t>SO2507280</t>
+  </si>
+  <si>
+    <t>SO2507516</t>
+  </si>
+  <si>
+    <t>SO2507630</t>
+  </si>
+  <si>
+    <t>SO2507655</t>
+  </si>
+  <si>
+    <t>SO2507709</t>
+  </si>
+  <si>
+    <t>SO2507772</t>
+  </si>
+  <si>
+    <t>SO2507795</t>
+  </si>
+  <si>
+    <t>SO2508371</t>
+  </si>
+  <si>
+    <t>SO2507938</t>
+  </si>
+  <si>
+    <t>SO2507918</t>
+  </si>
+  <si>
+    <t>SO2508017</t>
+  </si>
+  <si>
+    <t>SO2507997</t>
+  </si>
+  <si>
+    <t>SO2508180</t>
+  </si>
+  <si>
+    <t>SO2508086</t>
+  </si>
+  <si>
+    <t>SO2508164</t>
+  </si>
+  <si>
+    <t>SO2508303</t>
+  </si>
+  <si>
+    <t>SO2508215</t>
+  </si>
+  <si>
+    <t>SO2508223</t>
+  </si>
+  <si>
+    <t>SO2508263</t>
+  </si>
+  <si>
+    <t>SO2508291</t>
+  </si>
+  <si>
+    <t>SO2508264</t>
+  </si>
+  <si>
+    <t>SO2508404</t>
+  </si>
+  <si>
+    <t>SO2508343</t>
+  </si>
+  <si>
+    <t>SO2508319</t>
+  </si>
+  <si>
+    <t>SO2508366</t>
+  </si>
+  <si>
+    <t>SO2508428</t>
+  </si>
+  <si>
+    <t>SO2508441</t>
+  </si>
+  <si>
+    <t>SO2508451</t>
+  </si>
+  <si>
+    <t>SO2508501</t>
+  </si>
+  <si>
+    <t>SO2508520</t>
+  </si>
+  <si>
+    <t>SO2508469</t>
+  </si>
+  <si>
+    <t>SO2508519</t>
+  </si>
+  <si>
+    <t>SO2508583</t>
+  </si>
+  <si>
+    <t>SO2508582</t>
+  </si>
+  <si>
+    <t>SO2508690</t>
+  </si>
+  <si>
+    <t>SO2508711</t>
+  </si>
+  <si>
+    <t>SO2508896</t>
+  </si>
+  <si>
+    <t>SO2509092</t>
+  </si>
+  <si>
+    <t>SO2509102</t>
+  </si>
+  <si>
+    <t>SO2509120</t>
+  </si>
+  <si>
+    <t>SO2509242</t>
+  </si>
+  <si>
+    <t>SO2509367</t>
+  </si>
+  <si>
+    <t>SO2509190</t>
+  </si>
+  <si>
+    <t>SO2509207</t>
+  </si>
+  <si>
+    <t>SO2509538</t>
+  </si>
+  <si>
+    <t>SO2509390</t>
+  </si>
+  <si>
+    <t>SO2509391</t>
+  </si>
+  <si>
+    <t>SO2509364</t>
+  </si>
+  <si>
+    <t>SO2509418</t>
+  </si>
+  <si>
+    <t>SO2509419</t>
+  </si>
+  <si>
+    <t>SO2509393</t>
+  </si>
+  <si>
+    <t>SO2509465</t>
+  </si>
+  <si>
+    <t>SO2509462</t>
+  </si>
+  <si>
+    <t>SO2509461</t>
+  </si>
+  <si>
+    <t>SO2509460</t>
+  </si>
+  <si>
+    <t>SO2509479</t>
+  </si>
+  <si>
+    <t>SO2509518</t>
+  </si>
+  <si>
+    <t>SO2509520</t>
+  </si>
+  <si>
+    <t>SO2509534</t>
+  </si>
+  <si>
+    <t>SO2509655</t>
+  </si>
+  <si>
+    <t>SO2509581</t>
+  </si>
+  <si>
+    <t>SO2509607</t>
+  </si>
+  <si>
+    <t>SO2509666</t>
+  </si>
+  <si>
+    <t>SO2509645</t>
+  </si>
+  <si>
+    <t>SO2509814</t>
+  </si>
+  <si>
+    <t>SO2509737</t>
+  </si>
+  <si>
+    <t>SO2509820</t>
+  </si>
+  <si>
+    <t>SO2509827</t>
+  </si>
+  <si>
+    <t>SO2510039</t>
+  </si>
+  <si>
+    <t>SO2510357</t>
+  </si>
+  <si>
+    <t>SO2510171</t>
+  </si>
+  <si>
+    <t>SO2510267</t>
+  </si>
+  <si>
+    <t>SO2510560</t>
+  </si>
+  <si>
+    <t>SO2510724</t>
+  </si>
+  <si>
+    <t>SO2510723</t>
+  </si>
+  <si>
+    <t>SO2510758</t>
+  </si>
+  <si>
+    <t>SO2510748</t>
+  </si>
+  <si>
+    <t>SO2510788</t>
+  </si>
+  <si>
+    <t>SO2510787</t>
+  </si>
+  <si>
+    <t>SO2510820</t>
+  </si>
+  <si>
+    <t>SO2510939</t>
+  </si>
+  <si>
+    <t>SO2511298</t>
   </si>
 </sst>
 </file>
@@ -784,10 +2956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53DD2571-4B9C-4A12-8B76-CF0D7D405277}">
-  <dimension ref="A1:A136"/>
+  <dimension ref="A1:A860"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A136"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A860"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1472,6 +3644,3626 @@
         <v>135</v>
       </c>
     </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A637" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A639" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A640" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A642" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A643" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A644" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A645" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A646" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A651" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A652" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A653" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A654" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A655" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A656" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A657" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A658" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A659" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A660" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A661" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A662" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A663" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A664" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A665" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A666" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A667" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A668" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A669" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A670" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A671" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A672" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A673" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A674" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A675" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A676" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A677" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A678" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A679" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A680" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A681" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A682" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A683" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A684" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A685" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A686" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A687" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A688" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A689" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A690" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A691" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A692" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A694" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A695" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A696" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A697" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A698" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A699" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A700" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A701" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A703" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A705" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A706" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A707" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A708" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A709" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A710" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A711" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A712" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A713" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A714" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A715" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A716" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A717" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A718" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A719" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A722" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A723" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A724" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A725" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A726" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A727" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A728" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A729" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A730" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A731" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A732" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A733" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A734" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A735" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A736" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A737" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A738" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A739" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A740" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A741" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A742" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A743" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A744" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A745" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A746" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A747" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A748" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A749" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A750" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A751" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A752" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A753" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A754" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A755" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A756" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A757" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A758" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A759" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A760" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A761" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A762" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A763" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A764" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A765" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A766" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A767" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A768" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A769" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A770" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A771" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A772" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A773" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A774" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A775" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A776" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A777" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A778" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A779" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A780" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A781" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A782" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A783" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A784" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A785" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A786" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A787" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A788" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A789" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A790" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A791" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A792" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A793" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A794" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A795" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A796" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A797" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A798" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A799" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A800" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A801" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A802" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A803" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A804" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A805" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A806" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A807" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A808" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A809" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A810" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A811" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A812" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A813" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A814" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A815" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A816" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A817" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A818" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A819" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A820" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A821" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A822" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A823" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A824" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A825" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A826" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A827" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A828" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A829" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A830" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A831" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A832" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A833" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A834" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A835" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A836" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A837" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A838" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A839" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A840" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A841" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A842" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A843" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A844" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A845" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A846" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A847" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A848" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A849" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A850" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A851" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A852" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A853" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A854" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A855" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A856" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A857" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A858" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A859" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A860" t="s">
+        <v>859</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
